--- a/Revisions_Statique/Fiche_01_Statique_2D_TD_01_Hayon/images/CourbeVerin.xlsx
+++ b/Revisions_Statique/Fiche_01_Statique_2D_TD_01_Hayon/images/CourbeVerin.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1DB89889-4988-484B-9F3E-E90C36323CFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -171,6 +170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -179,26 +179,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2274,7 +2254,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EEE3-4DE0-8448-AA5E69B44188}"/>
             </c:ext>
@@ -2288,11 +2268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="591375488"/>
-        <c:axId val="591377128"/>
+        <c:axId val="126886464"/>
+        <c:axId val="126887040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="591375488"/>
+        <c:axId val="126886464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2339,6 +2319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2347,26 +2328,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2405,12 +2366,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591377128"/>
+        <c:crossAx val="126887040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="591377128"/>
+        <c:axId val="126887040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.58000000000000007"/>
@@ -2469,7 +2430,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591375488"/>
+        <c:crossAx val="126886464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2483,14 +2444,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2526,7 +2487,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2540,6 +2501,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4654,7 +4616,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3ADC-46F0-A8B2-298D55B87DFC}"/>
             </c:ext>
@@ -6739,7 +6701,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3ADC-46F0-A8B2-298D55B87DFC}"/>
             </c:ext>
@@ -8824,7 +8786,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3ADC-46F0-A8B2-298D55B87DFC}"/>
             </c:ext>
@@ -8838,11 +8800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414795160"/>
-        <c:axId val="414795488"/>
+        <c:axId val="126888768"/>
+        <c:axId val="126889344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414795160"/>
+        <c:axId val="126888768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -8900,12 +8862,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414795488"/>
+        <c:crossAx val="126889344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414795488"/>
+        <c:axId val="126889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8962,7 +8924,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414795160"/>
+        <c:crossAx val="126888768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8976,6 +8938,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9007,14 +8970,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10181,7 +10144,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19C8DBD-2B8C-41B5-9831-B22DEAAFA941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D19C8DBD-2B8C-41B5-9831-B22DEAAFA941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10201,23 +10164,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B3DCF6-D696-49B1-9D5F-D0D5D039CC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27B3DCF6-D696-49B1-9D5F-D0D5D039CC26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10281,7 +10244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10314,26 +10277,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10366,23 +10312,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10558,11 +10487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22224,7 +22153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22236,7 +22165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Revisions_Statique/Fiche_01_Statique_2D_TD_01_Hayon/images/CourbeVerin.xlsx
+++ b/Revisions_Statique/Fiche_01_Statique_2D_TD_01_Hayon/images/CourbeVerin.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3EA649D7-4378-47E3-9B36-BFF186746C4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -170,15 +171,44 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4763779527559044E-2"/>
+          <c:y val="0.19117691333236064"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2254,7 +2284,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EEE3-4DE0-8448-AA5E69B44188}"/>
             </c:ext>
@@ -2319,15 +2349,44 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5862071303587052"/>
+              <c:y val="0.70487657451731012"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2375,7 +2434,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.58000000000000007"/>
-          <c:min val="0.4"/>
+          <c:min val="0.42000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2444,14 +2503,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2487,7 +2546,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2501,7 +2560,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4616,7 +4674,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3ADC-46F0-A8B2-298D55B87DFC}"/>
             </c:ext>
@@ -6701,7 +6759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3ADC-46F0-A8B2-298D55B87DFC}"/>
             </c:ext>
@@ -8786,7 +8844,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3ADC-46F0-A8B2-298D55B87DFC}"/>
             </c:ext>
@@ -8938,7 +8996,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8970,14 +9027,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10129,22 +10186,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47631</xdr:rowOff>
+      <xdr:rowOff>19056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D19C8DBD-2B8C-41B5-9831-B22DEAAFA941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19C8DBD-2B8C-41B5-9831-B22DEAAFA941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10180,7 +10237,7 @@
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27B3DCF6-D696-49B1-9D5F-D0D5D039CC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B3DCF6-D696-49B1-9D5F-D0D5D039CC26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10244,7 +10301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10277,9 +10334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10312,6 +10386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10487,11 +10578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22153,7 +22244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22165,7 +22256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
